--- a/AfDD_2024_Annex_Table_Tab17.xlsx
+++ b/AfDD_2024_Annex_Table_Tab17.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{572FECF3-4891-4124-BAE1-57418AA7249C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B228D807-BBCD-4A2F-B3C2-D47ABFEC13AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{C7227391-6B75-4526-ADFF-BCFF488FB043}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{276159BA-22A5-45E1-9F44-0449C0AC3C18}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="173">
   <si>
     <t>Table 17: Trade by manufacturing intensity</t>
   </si>
@@ -543,13 +543,10 @@
     <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated 30/01/2024).</t>
   </si>
   <si>
-    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2024</t>
   </si>
   <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
-  </si>
-  <si>
-    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
@@ -570,26 +567,13 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -602,6 +586,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -675,6 +667,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -683,10 +682,30 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFD42C2D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -701,13 +720,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFD42C2D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFBE3DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,24 +741,11 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -748,7 +754,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -756,20 +762,33 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom/>
@@ -777,7 +796,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top/>
@@ -787,7 +806,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom/>
@@ -795,77 +814,25 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,152 +841,255 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1030,20 +1100,23 @@
     <xf numFmtId="37" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="37" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1051,18 +1124,20 @@
     <xf numFmtId="37" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1378,19 +1453,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CA5599-141F-4505-931F-BE02624355FC}">
-  <sheetPr codeName="Sheet10">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E79026-998F-438E-946D-19111BEDEB5D}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1398,3328 +1473,3332 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>44678.641189000002</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="14">
         <v>1744.6875399999999</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="14">
         <v>7775.2310539999999</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="15">
         <v>54198.559782999997</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="13">
         <v>940.13126399999999</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="14">
         <v>10270.103553999999</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="14">
         <v>5317.4865879999998</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="15">
         <v>16527.721406000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="17">
         <v>6379.2396980000003</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="18">
         <v>2067.7515509999998</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="18">
         <v>234.24239299999999</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="19">
         <v>8681.2336419999992</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="17">
         <v>1923.2483729999999</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="18">
         <v>4126.9444830000002</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="18">
         <v>1764.0126009999999</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="19">
         <v>7814.205457</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="21">
         <v>127.875377</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="22">
         <v>1602.5106539999999</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="22">
         <v>315.26543800000002</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="23">
         <v>2045.6514689999999</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="21">
         <v>182.49957800000001</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="22">
         <v>1326.2398820000001</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="22">
         <v>533.43412799999999</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="23">
         <v>2042.1735880000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="21">
         <v>407.60905200000002</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="22">
         <v>279.30793999999997</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="22">
         <v>479.442882</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="23">
         <v>1166.359874</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="21">
         <v>204.54548700000001</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="22">
         <v>1201.0205960000001</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="22">
         <v>476.23647399999999</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="23">
         <v>1881.802557</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="21">
         <v>779.14543100000003</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="22">
         <v>364.29618099999999</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="22">
         <v>47.12838</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="23">
         <v>1190.569992</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="21">
         <v>179.383961</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="22">
         <v>1271.911421</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="22">
         <v>680.17332699999997</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="23">
         <v>2131.4687090000002</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="21">
         <v>5562.0271990000001</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="22">
         <v>4079.677087</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="22">
         <v>2014.9303030000001</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="23">
         <v>11656.634588999999</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="21">
         <v>2849.7274750000001</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="22">
         <v>12546.928540999999</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="22">
         <v>7703.4800809999997</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="23">
         <v>23100.136096999999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="21">
         <v>1840.4807539999999</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="22">
         <v>3716.9758959999999</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="22">
         <v>627.951956</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="23">
         <v>6185.408606</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="21">
         <v>1030.0378909999999</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="22">
         <v>4112.4072470000001</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="22">
         <v>2860.2011269999998</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="23">
         <v>8002.6462650000003</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="21">
         <v>43222.541378000002</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="22">
         <v>84050.955725000007</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="22">
         <v>23158.763589999999</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="23">
         <v>150432.26069299999</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="21">
         <v>8530.9973900000005</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="22">
         <v>66852.911976000003</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="22">
         <v>37800.352485000003</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="23">
         <v>113184.261851</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="17">
         <v>1466.4847119999999</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="18">
         <v>12830.540282</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="18">
         <v>528.78943000000004</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="19">
         <v>14825.814424</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="17">
         <v>836.36525300000005</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="18">
         <v>5953.3600280000001</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="18">
         <v>3385.9723060000001</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="19">
         <v>10175.697587000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="25">
         <v>1836.1769650000001</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="26">
         <v>6246.9587670000001</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="26">
         <v>334.97359599999999</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="27">
         <v>8418.1093280000005</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="25">
         <v>298.07305700000001</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="26">
         <v>5376.974913</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="26">
         <v>2844.3991769999998</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="27">
         <v>8519.4471470000099</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="30">
         <v>106300.22175500001</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="31">
         <v>116983.66162300001</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="31">
         <v>35516.719021999997</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="32">
         <v>258800.6024</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="30">
         <v>16975.009729000001</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="31">
         <v>113038.802641</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="31">
         <v>63365.748293999997</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="32">
         <v>193379.56066399999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="34">
         <v>78.086905999999999</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="35">
         <v>94.628889999999998</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="35">
         <v>15.226164000000001</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="36">
         <v>187.94195999999999</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="34">
         <v>84.263316000000103</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="35">
         <v>837.12936000000002</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="35">
         <v>306.216745</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="36">
         <v>1227.6094210000001</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="21">
         <v>3731.7019559999999</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="22">
         <v>1384.921231</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="22">
         <v>1845.3014720000001</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="23">
         <v>6961.9246590000002</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="21">
         <v>540.67742899999996</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="22">
         <v>4858.9617049999997</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="22">
         <v>2788.4461299999998</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="23">
         <v>8188.0852640000003</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="21">
         <v>81.621686999999994</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="22">
         <v>124.216714</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="22">
         <v>25.259540000000001</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="23">
         <v>231.09794099999999</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="21">
         <v>32.254170000000002</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="22">
         <v>451.41932300000002</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="22">
         <v>398.49798399999997</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="23">
         <v>882.17147699999998</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="38">
         <v>3505.4501730000002</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="39">
         <v>884.69311800000003</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="39">
         <v>2.5204330000000001</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="40">
         <v>4392.663724</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="38">
         <v>16.888458</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="39">
         <v>588.52616699999999</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="39">
         <v>502.22587299999998</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="40">
         <v>1107.640498</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="38">
         <v>8795.7033630000005</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="39">
         <v>3617.3633500000001</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="39">
         <v>29.192036000000002</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="40">
         <v>12442.258749000001</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="38">
         <v>320.37433800000002</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="39">
         <v>2189.0923299999999</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="39">
         <v>1253.281997</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="40">
         <v>3762.7486650000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="17">
         <v>3424.1636090000002</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="18">
         <v>24970.69688</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="18">
         <v>70.181656000000004</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="19">
         <v>28465.042144999999</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="17">
         <v>1787.9020439999999</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="18">
         <v>8916.6118270000006</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="18">
         <v>4674.1205239999999</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="19">
         <v>15378.634394999999</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="38">
         <v>4053.2692619999998</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="39">
         <v>1179.837372</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="39">
         <v>3402.0597330000001</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="40">
         <v>8635.1663670000107</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="38">
         <v>128.087895</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="39">
         <v>1090.54169</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="39">
         <v>471.50153299999999</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="40">
         <v>1690.131118</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="38">
         <v>6754.8754220000001</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="39">
         <v>1129.7839240000001</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="39">
         <v>16.789169999999999</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="40">
         <v>7901.4485160000004</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="38">
         <v>96.864608000000104</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="39">
         <v>1573.5757840000001</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="39">
         <v>962.10992399999998</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="40">
         <v>2632.5503159999998</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="25">
         <v>13.725109</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="26">
         <v>14.202877000000001</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="26">
         <v>2.036743</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="27">
         <v>29.964728999999998</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="25">
         <v>7.8839199999999998</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="26">
         <v>152.07547099999999</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="26">
         <v>64.037038999999993</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="27">
         <v>223.99643</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="30">
         <v>30438.597486999999</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="31">
         <v>33400.344356000001</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="31">
         <v>5408.5669470000003</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="32">
         <v>69247.508790000007</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="30">
         <v>3015.1961780000001</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="31">
         <v>20657.933657000001</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="31">
         <v>11420.437749000001</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="32">
         <v>35093.567583999997</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="34">
         <v>55.976125000000003</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="35">
         <v>6.8136539999999997</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="35">
         <v>2.6462319999999999</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="36">
         <v>65.436010999999993</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="34">
         <v>9.4969529999999995</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="35">
         <v>250.12277</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="35">
         <v>89.263976999999997</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="36">
         <v>348.88369999999998</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="21">
         <v>64.319198</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="22">
         <v>456.73713900000001</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="22">
         <v>20.654968</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="23">
         <v>541.71130500000004</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="21">
         <v>368.53810700000002</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="22">
         <v>5825.8427629999996</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="22">
         <v>2445.990832</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="23">
         <v>8640.3717020000004</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="21">
         <v>518.06832999999995</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="22">
         <v>264.15360500000003</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="22">
         <v>8.1565779999999997</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="23">
         <v>790.378513</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="21">
         <v>39.242178000000003</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="22">
         <v>245.828115</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="22">
         <v>155.748696</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="23">
         <v>440.81898899999999</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="21">
         <v>2453.615468</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="22">
         <v>1074.0528919999999</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="22">
         <v>710.40317000000096</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="23">
         <v>4238.0715300000002</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="21">
         <v>1381.4852390000001</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="22">
         <v>7100.2632510000003</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="22">
         <v>3635.171018</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="23">
         <v>12116.919508000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="21">
         <v>3147.1924600000002</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="22">
         <v>2279.0268809999998</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="22">
         <v>1903.4588470000001</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="23">
         <v>7329.6781879999999</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="21">
         <v>1552.718447</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="22">
         <v>17506.007158</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="22">
         <v>6888.6541539999998</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="23">
         <v>25947.379758999999</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="21">
         <v>1608.7830059999999</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="22">
         <v>1645.80231</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="22">
         <v>956.34488299999998</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="23">
         <v>4210.9301990000004</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="21">
         <v>497.71711699999997</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="22">
         <v>3756.0498090000001</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="22">
         <v>1184.1081489999999</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="23">
         <v>5437.8750749999999</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="21">
         <v>181.10709199999999</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="22">
         <v>1575.0268550000001</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="22">
         <v>845.17652099999998</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="23">
         <v>2601.3104680000001</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="21">
         <v>862.98781099999997</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="22">
         <v>3955.141615</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="22">
         <v>2024.2221</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="23">
         <v>6842.3515260000004</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="21">
         <v>526.67178100000001</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="22">
         <v>1134.0722860000001</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="22">
         <v>125.432486</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="23">
         <v>1786.176553</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="21">
         <v>270.24546800000002</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="22">
         <v>2910.532643</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="22">
         <v>1096.4557789999999</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="23">
         <v>4277.2338900000004</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="21">
         <v>22.685168000000001</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="22">
         <v>627.49246700000003</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="22">
         <v>95.954819000000001</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="23">
         <v>746.13245400000005</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="21">
         <v>50.219521999999998</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="22">
         <v>851.51361500000098</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="22">
         <v>818.46179600000005</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="23">
         <v>1720.194933</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="21">
         <v>303.17842100000001</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="22">
         <v>262.59158200000002</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="22">
         <v>2.4302519999999999</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="23">
         <v>568.20025499999997</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="21">
         <v>449.521342</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="22">
         <v>3174.689805</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="22">
         <v>1994.001872</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="23">
         <v>5618.2130189999998</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="38">
         <v>495.65482800000001</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="39">
         <v>46.956480999999997</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="39">
         <v>1.731997</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="40">
         <v>544.34330599999998</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="38">
         <v>76.811087000000001</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="39">
         <v>428.84802500000001</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="39">
         <v>432.40677599999998</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="40">
         <v>938.065888000001</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="21">
         <v>2704.8765800000001</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="22">
         <v>2799.4720179999999</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="22">
         <v>20.480865000000001</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="23">
         <v>5524.82946300001</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="21">
         <v>874.62705100000005</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="22">
         <v>5285.9645879999998</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="22">
         <v>2990.578473</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="23">
         <v>9151.1701120000107</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="21">
         <v>2854.949529</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="22">
         <v>6686.0021550000001</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="22">
         <v>455.13930399999998</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="23">
         <v>9996.0909880000108</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="21">
         <v>683.04001300000004</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="22">
         <v>15204.405084</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="22">
         <v>6321.3124070000003</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="23">
         <v>22208.757504000001</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="25">
         <v>1264.9417490000001</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="26">
         <v>2569.2598539999999</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="26">
         <v>150.50349199999999</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="27">
         <v>3984.7050949999998</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="25">
         <v>300.69274000000001</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="26">
         <v>2382.1916080000001</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="26">
         <v>1982.1006279999999</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="27">
         <v>4664.9849759999997</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="30">
         <v>16202.019735</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="31">
         <v>21427.460179000002</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="31">
         <v>5298.5144140000002</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="32">
         <v>42927.994328000001</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="30">
         <v>7417.3430749999998</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="31">
         <v>68877.400848999998</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="31">
         <v>32058.476656999999</v>
       </c>
-      <c r="J38" s="26">
+      <c r="J38" s="32">
         <v>108353.220581</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="13">
         <v>34034.833912000002</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="14">
         <v>14371.416739</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="14">
         <v>10122.911942999999</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="15">
         <v>58529.162594000001</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="13">
         <v>7012.4333939999997</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="14">
         <v>18348.928156000002</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="14">
         <v>8860.8077210000101</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="15">
         <v>34222.169270999999</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="21">
         <v>8592.8625510000002</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="22">
         <v>27627.422961</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="22">
         <v>17347.666280000001</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="23">
         <v>53567.951792</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="21">
         <v>20427.914984999999</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="22">
         <v>52158.174105999999</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="22">
         <v>23184.542291000002</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="23">
         <v>95770.631381999905</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="38">
         <v>33721.407009000002</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="39">
         <v>2012.080915</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="39">
         <v>314.93789400000003</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="40">
         <v>36048.425818000003</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="38">
         <v>1251.402679</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="39">
         <v>12076.172323000001</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I41" s="39">
         <v>6005.418345</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="40">
         <v>19332.993347</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="38">
         <v>1909.0808469999999</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="39">
         <v>2978.1837740000001</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="39">
         <v>15.487992</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="40">
         <v>4902.7526129999997</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="38">
         <v>570.99131899999998</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="39">
         <v>3457.7680690000002</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I42" s="39">
         <v>1404.1228819999999</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J42" s="40">
         <v>5432.8822700000101</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="21">
         <v>7822.120097</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="22">
         <v>25901.860288</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="22">
         <v>13860.820760000001</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="23">
         <v>47584.801144999998</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="21">
         <v>9774.501988</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="22">
         <v>43031.496721000003</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="22">
         <v>16004.475515</v>
       </c>
-      <c r="J43" s="21">
+      <c r="J43" s="23">
         <v>68810.474224000005</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="25">
         <v>2033.5694080000001</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="26">
         <v>11693.646903999999</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="26">
         <v>7930.9798389999896</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="27">
         <v>21658.196151</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="25">
         <v>4086.7906090000001</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="26">
         <v>16502.220925000001</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="26">
         <v>6231.7638960000004</v>
       </c>
-      <c r="J44" s="21">
+      <c r="J44" s="27">
         <v>26820.775430000002</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="30">
         <v>88113.873823999995</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="31">
         <v>84584.611581000005</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="31">
         <v>49592.804708000003</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F45" s="32">
         <v>222291.290113</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="30">
         <v>43124.034974000002</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="31">
         <v>145574.76029999999</v>
       </c>
-      <c r="I45" s="25">
+      <c r="I45" s="31">
         <v>61691.130649999999</v>
       </c>
-      <c r="J45" s="26">
+      <c r="J45" s="32">
         <v>250389.92592400001</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="34">
         <v>872.046199</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="35">
         <v>611.77832000000001</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="35">
         <v>32.315677000000001</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="36">
         <v>1516.1401960000001</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="34">
         <v>201.92478299999999</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="35">
         <v>4244.4444080000003</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="35">
         <v>1658.440282</v>
       </c>
-      <c r="J46" s="21">
+      <c r="J46" s="36">
         <v>6104.8094730000003</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="21">
         <v>1117.554118</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="22">
         <v>6962.5924409999998</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="22">
         <v>74.993268999999998</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="23">
         <v>8155.1398280000003</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="21">
         <v>173.96437900000001</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="22">
         <v>3487.7630399999998</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="22">
         <v>1600.604423</v>
       </c>
-      <c r="J47" s="21">
+      <c r="J47" s="23">
         <v>5262.3318419999996</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="28">
+      <c r="C48" s="38">
         <v>11.732531</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="39">
         <v>60.323039000000001</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="39">
         <v>20.077738</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="40">
         <v>92.133308</v>
       </c>
-      <c r="G48" s="28">
+      <c r="G48" s="38">
         <v>73.624409</v>
       </c>
-      <c r="H48" s="29">
+      <c r="H48" s="39">
         <v>692.70453299999997</v>
       </c>
-      <c r="I48" s="29">
+      <c r="I48" s="39">
         <v>224.834619</v>
       </c>
-      <c r="J48" s="30">
+      <c r="J48" s="40">
         <v>991.16356099999996</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="21">
         <v>8602.5925709999992</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="22">
         <v>7697.4768490000097</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="22">
         <v>1222.44282</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="23">
         <v>17522.51224</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="21">
         <v>3197.6463600000002</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="22">
         <v>9764.9113700000107</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="22">
         <v>5372.8934289999997</v>
       </c>
-      <c r="J49" s="21">
+      <c r="J49" s="23">
         <v>18335.451159</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="21">
         <v>107.233831</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="22">
         <v>58.386690000000002</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="22">
         <v>4.8772260000000003</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="23">
         <v>170.497747</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="21">
         <v>110.51889300000001</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="22">
         <v>1036.2305699999999</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I50" s="22">
         <v>295.142425</v>
       </c>
-      <c r="J50" s="21">
+      <c r="J50" s="23">
         <v>1441.8918880000001</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="17">
         <v>8034.8027860000002</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="18">
         <v>11646.606769</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="18">
         <v>306.63224000000002</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="19">
         <v>19988.041795000001</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="17">
         <v>779.86097299999994</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H51" s="18">
         <v>12247.171085</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="18">
         <v>6402.3472620000102</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="19">
         <v>19429.37932</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="21">
         <v>5036.8485639999999</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="22">
         <v>5330.6585320000004</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="22">
         <v>8.2639619999999994</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="23">
         <v>10375.771058</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="21">
         <v>254.03008399999999</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="22">
         <v>3769.1019070000002</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="22">
         <v>2082.3998470000001</v>
       </c>
-      <c r="J52" s="21">
+      <c r="J52" s="23">
         <v>6105.5318379999999</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="21">
         <v>207.160459</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="22">
         <v>13.026434</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="22">
         <v>0.45363700000000001</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="23">
         <v>220.64053000000001</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="21">
         <v>13.802313</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="22">
         <v>309.61652700000002</v>
       </c>
-      <c r="I53" s="20">
+      <c r="I53" s="22">
         <v>80.000303000000002</v>
       </c>
-      <c r="J53" s="21">
+      <c r="J53" s="23">
         <v>403.41914300000002</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="21">
         <v>651.680744</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="22">
         <v>903.10674400000005</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="22">
         <v>406.52189600000003</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="23">
         <v>1961.3093839999999</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54" s="21">
         <v>65.402773999999994</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="22">
         <v>5854.5574509999997</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="22">
         <v>11976.726337</v>
       </c>
-      <c r="J54" s="21">
+      <c r="J54" s="23">
         <v>17896.686561999999</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="21">
         <v>229.67263199999999</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="22">
         <v>7309.4696240000003</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="22">
         <v>24.745657999999999</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="23">
         <v>7563.8879139999999</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="21">
         <v>268.885559</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="22">
         <v>4402.616712</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I55" s="22">
         <v>1407.2572929999999</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J55" s="23">
         <v>6078.759564</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="21">
         <v>497.46828099999999</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="22">
         <v>2657.736817</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="22">
         <v>54.170751000000003</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="23">
         <v>3209.375849</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56" s="21">
         <v>180.83411899999999</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="22">
         <v>1734.3304869999999</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="22">
         <v>1569.310463</v>
       </c>
-      <c r="J56" s="21">
+      <c r="J56" s="23">
         <v>3484.4750690000001</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="21">
         <v>55251.592215999997</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="22">
         <v>5494.7700450000002</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="22">
         <v>10005.547814</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F57" s="23">
         <v>70751.910074999905</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G57" s="21">
         <v>4069.6250839999998</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="22">
         <v>46442.831971</v>
       </c>
-      <c r="I57" s="20">
+      <c r="I57" s="22">
         <v>17292.277035999999</v>
       </c>
-      <c r="J57" s="21">
+      <c r="J57" s="23">
         <v>67804.734091000093</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="21">
         <v>1261.417308</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="22">
         <v>4231.1026670000001</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="22">
         <v>702.98655900000006</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="23">
         <v>6195.5065340000001</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="21">
         <v>1719.5035419999999</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="22">
         <v>10127.671423</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="22">
         <v>4627.8475769999995</v>
       </c>
-      <c r="J58" s="21">
+      <c r="J58" s="23">
         <v>16475.022541999999</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="21">
         <v>1034.9014629999999</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="22">
         <v>89.965243999999998</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="22">
         <v>25.928574000000001</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="23">
         <v>1150.7952809999999</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G59" s="21">
         <v>38.489970999999997</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="22">
         <v>1110.294613</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="22">
         <v>567.00220300000001</v>
       </c>
-      <c r="J59" s="21">
+      <c r="J59" s="23">
         <v>1715.786787</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="43">
         <v>1150.762467</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="44">
         <v>2964.2106140000001</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="44">
         <v>441.42695800000001</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="45">
         <v>4556.4000390000001</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="43">
         <v>932.48465100000101</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="44">
         <v>14518.756445000001</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="44">
         <v>2910.084809</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="45">
         <v>18361.325905000002</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="30">
         <v>84067.46617</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D61" s="31">
         <v>56031.210829000003</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="31">
         <v>13331.384779</v>
       </c>
-      <c r="F61" s="26">
+      <c r="F61" s="32">
         <v>153430.061778</v>
       </c>
-      <c r="G61" s="24">
+      <c r="G61" s="30">
         <v>12080.597894</v>
       </c>
-      <c r="H61" s="25">
+      <c r="H61" s="31">
         <v>119743.002542</v>
       </c>
-      <c r="I61" s="25">
+      <c r="I61" s="31">
         <v>58067.168308</v>
       </c>
-      <c r="J61" s="26">
+      <c r="J61" s="32">
         <v>189890.768744</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="32" t="s">
+      <c r="A62" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="34">
+      <c r="C62" s="48">
         <v>325122.17897100002</v>
       </c>
-      <c r="D62" s="35">
+      <c r="D62" s="49">
         <v>312427.28856800002</v>
       </c>
-      <c r="E62" s="35">
+      <c r="E62" s="49">
         <v>109147.98987</v>
       </c>
-      <c r="F62" s="36">
+      <c r="F62" s="50">
         <v>746697.45740900002</v>
       </c>
-      <c r="G62" s="34">
+      <c r="G62" s="48">
         <v>82612.181849999994</v>
       </c>
-      <c r="H62" s="35">
+      <c r="H62" s="49">
         <v>467891.899989</v>
       </c>
-      <c r="I62" s="35">
+      <c r="I62" s="49">
         <v>226602.96165799999</v>
       </c>
-      <c r="J62" s="36">
+      <c r="J62" s="50">
         <v>777107.04349700001</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32" t="s">
+      <c r="A63" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="38">
+      <c r="C63" s="52">
         <v>3274491.2617410002</v>
       </c>
-      <c r="D63" s="39">
+      <c r="D63" s="53">
         <v>11393425.332878999</v>
       </c>
-      <c r="E63" s="39">
+      <c r="E63" s="53">
         <v>7623471.2463029996</v>
       </c>
-      <c r="F63" s="40">
+      <c r="F63" s="54">
         <v>22291387.840923</v>
       </c>
-      <c r="G63" s="38">
+      <c r="G63" s="52">
         <v>3441580.6686220001</v>
       </c>
-      <c r="H63" s="39">
+      <c r="H63" s="53">
         <v>11075703.585411999</v>
       </c>
-      <c r="I63" s="39">
+      <c r="I63" s="53">
         <v>7314889.3451479999</v>
       </c>
-      <c r="J63" s="40">
+      <c r="J63" s="54">
         <v>21832173.599181999</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="34">
+      <c r="C64" s="57">
         <v>440083.37505500001</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="58">
         <v>606974.02687099995</v>
       </c>
-      <c r="E64" s="35">
+      <c r="E64" s="58">
         <v>343917.57480200002</v>
       </c>
-      <c r="F64" s="36">
+      <c r="F64" s="59">
         <v>1390974.976728</v>
       </c>
-      <c r="G64" s="34">
+      <c r="G64" s="57">
         <v>125140.800134</v>
       </c>
-      <c r="H64" s="35">
+      <c r="H64" s="58">
         <v>870412.87697300001</v>
       </c>
-      <c r="I64" s="35">
+      <c r="I64" s="58">
         <v>412240.86600699998</v>
       </c>
-      <c r="J64" s="36">
+      <c r="J64" s="59">
         <v>1407794.543114</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="41" t="s">
+      <c r="A65" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="43">
+      <c r="C65" s="60">
         <v>408488.43087400001</v>
       </c>
-      <c r="D65" s="44">
+      <c r="D65" s="61">
         <v>3124235.13258</v>
       </c>
-      <c r="E65" s="44">
+      <c r="E65" s="61">
         <v>2586941.5857560001</v>
       </c>
-      <c r="F65" s="45">
+      <c r="F65" s="62">
         <v>6119665.1492100004</v>
       </c>
-      <c r="G65" s="43">
+      <c r="G65" s="60">
         <v>1206083.28373</v>
       </c>
-      <c r="H65" s="44">
+      <c r="H65" s="61">
         <v>2531788.7761749998</v>
       </c>
-      <c r="I65" s="44">
+      <c r="I65" s="61">
         <v>1004580.511815</v>
       </c>
-      <c r="J65" s="45">
+      <c r="J65" s="62">
         <v>4742452.5717200004</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="47">
+      <c r="C66" s="64">
         <v>3599613.4407119998</v>
       </c>
-      <c r="D66" s="48">
+      <c r="D66" s="65">
         <v>11705852.621447001</v>
       </c>
-      <c r="E66" s="48">
+      <c r="E66" s="65">
         <v>7732619.2361730104</v>
       </c>
-      <c r="F66" s="49">
+      <c r="F66" s="66">
         <v>23038085.298331998</v>
       </c>
-      <c r="G66" s="47">
+      <c r="G66" s="64">
         <v>3524192.850472</v>
       </c>
-      <c r="H66" s="48">
+      <c r="H66" s="65">
         <v>11543595.485401001</v>
       </c>
-      <c r="I66" s="48">
+      <c r="I66" s="65">
         <v>7541492.3068059999</v>
       </c>
-      <c r="J66" s="49">
+      <c r="J66" s="66">
         <v>22609280.642678998</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="51">
+      <c r="C67" s="60">
         <v>64911.187345999999</v>
       </c>
-      <c r="D67" s="52">
+      <c r="D67" s="61">
         <v>102137.283977</v>
       </c>
-      <c r="E67" s="52">
+      <c r="E67" s="61">
         <v>31746.791789999999</v>
       </c>
-      <c r="F67" s="53">
+      <c r="F67" s="62">
         <v>198795.26311299999</v>
       </c>
-      <c r="G67" s="51">
+      <c r="G67" s="60">
         <v>35792.087457000001</v>
       </c>
-      <c r="H67" s="52">
+      <c r="H67" s="61">
         <v>157662.94252499999</v>
       </c>
-      <c r="I67" s="52">
+      <c r="I67" s="61">
         <v>73150.798213000002</v>
       </c>
-      <c r="J67" s="53">
+      <c r="J67" s="62">
         <v>266605.82819500001</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="43">
+      <c r="C68" s="60">
         <v>144716.58332100001</v>
       </c>
-      <c r="D68" s="44">
+      <c r="D68" s="61">
         <v>130079.653718</v>
       </c>
-      <c r="E68" s="44">
+      <c r="E68" s="61">
         <v>52456.826778000002</v>
       </c>
-      <c r="F68" s="45">
+      <c r="F68" s="62">
         <v>327253.06381700002</v>
       </c>
-      <c r="G68" s="43">
+      <c r="G68" s="60">
         <v>49843.740550000002</v>
       </c>
-      <c r="H68" s="44">
+      <c r="H68" s="61">
         <v>256243.96623300001</v>
       </c>
-      <c r="I68" s="44">
+      <c r="I68" s="61">
         <v>107272.23798799999</v>
       </c>
-      <c r="J68" s="45">
+      <c r="J68" s="62">
         <v>413359.94477100001</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="41" t="s">
+      <c r="A69" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="43">
+      <c r="C69" s="60">
         <v>11791.660862000001</v>
       </c>
-      <c r="D69" s="44">
+      <c r="D69" s="61">
         <v>37780.643427000003</v>
       </c>
-      <c r="E69" s="44">
+      <c r="E69" s="61">
         <v>2721.6739459999999</v>
       </c>
-      <c r="F69" s="45">
+      <c r="F69" s="62">
         <v>52293.978235000002</v>
       </c>
-      <c r="G69" s="43">
+      <c r="G69" s="60">
         <v>4755.6731149999996</v>
       </c>
-      <c r="H69" s="44">
+      <c r="H69" s="61">
         <v>48185.725704999997</v>
       </c>
-      <c r="I69" s="44">
+      <c r="I69" s="61">
         <v>21701.267013000001</v>
       </c>
-      <c r="J69" s="45">
+      <c r="J69" s="62">
         <v>74642.665833000006</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="43">
+      <c r="C70" s="60">
         <v>75643.910457000005</v>
       </c>
-      <c r="D70" s="44">
+      <c r="D70" s="61">
         <v>36279.104182000003</v>
       </c>
-      <c r="E70" s="44">
+      <c r="E70" s="61">
         <v>13309.230487000001</v>
       </c>
-      <c r="F70" s="45">
+      <c r="F70" s="62">
         <v>125232.24512599999</v>
       </c>
-      <c r="G70" s="43">
+      <c r="G70" s="60">
         <v>4225.5729099999999</v>
       </c>
-      <c r="H70" s="44">
+      <c r="H70" s="61">
         <v>33838.569854000001</v>
       </c>
-      <c r="I70" s="44">
+      <c r="I70" s="61">
         <v>17834.380116</v>
       </c>
-      <c r="J70" s="45">
+      <c r="J70" s="62">
         <v>55898.522879999997</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="43">
+      <c r="C71" s="60">
         <v>84067.46617</v>
       </c>
-      <c r="D71" s="44">
+      <c r="D71" s="61">
         <v>56031.210829000003</v>
       </c>
-      <c r="E71" s="44">
+      <c r="E71" s="61">
         <v>13331.384779</v>
       </c>
-      <c r="F71" s="45">
+      <c r="F71" s="62">
         <v>153430.061778</v>
       </c>
-      <c r="G71" s="43">
+      <c r="G71" s="60">
         <v>12080.597894</v>
       </c>
-      <c r="H71" s="44">
+      <c r="H71" s="61">
         <v>119743.002542</v>
       </c>
-      <c r="I71" s="44">
+      <c r="I71" s="61">
         <v>58067.168308</v>
       </c>
-      <c r="J71" s="45">
+      <c r="J71" s="62">
         <v>189890.768744</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="43">
+      <c r="C72" s="60">
         <v>10433.778704</v>
       </c>
-      <c r="D72" s="44">
+      <c r="D72" s="61">
         <v>9488.0968470000007</v>
       </c>
-      <c r="E72" s="44">
+      <c r="E72" s="61">
         <v>2809.663591</v>
       </c>
-      <c r="F72" s="45">
+      <c r="F72" s="62">
         <v>22731.539142000001</v>
       </c>
-      <c r="G72" s="43">
+      <c r="G72" s="60">
         <v>5004.3940130000001</v>
       </c>
-      <c r="H72" s="44">
+      <c r="H72" s="61">
         <v>41703.807198000002</v>
       </c>
-      <c r="I72" s="44">
+      <c r="I72" s="61">
         <v>20368.903752999999</v>
       </c>
-      <c r="J72" s="45">
+      <c r="J72" s="62">
         <v>67077.104963999998</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="41" t="s">
+      <c r="A73" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="43">
+      <c r="C73" s="60">
         <v>114447.88628399999</v>
       </c>
-      <c r="D73" s="44">
+      <c r="D73" s="61">
         <v>152495.49594399999</v>
       </c>
-      <c r="E73" s="44">
+      <c r="E73" s="61">
         <v>37942.162436999999</v>
       </c>
-      <c r="F73" s="45">
+      <c r="F73" s="62">
         <v>304885.54466499999</v>
       </c>
-      <c r="G73" s="43">
+      <c r="G73" s="60">
         <v>20866.373189000002</v>
       </c>
-      <c r="H73" s="44">
+      <c r="H73" s="61">
         <v>145972.64736100001</v>
       </c>
-      <c r="I73" s="44">
+      <c r="I73" s="61">
         <v>78477.237246999997</v>
       </c>
-      <c r="J73" s="45">
+      <c r="J73" s="62">
         <v>245316.257797</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="43">
+      <c r="C74" s="60">
         <v>79521.011272999996</v>
       </c>
-      <c r="D74" s="44">
+      <c r="D74" s="61">
         <v>56957.188620000001</v>
       </c>
-      <c r="E74" s="44">
+      <c r="E74" s="61">
         <v>32245.138427999998</v>
       </c>
-      <c r="F74" s="45">
+      <c r="F74" s="62">
         <v>168723.33832099999</v>
       </c>
-      <c r="G74" s="43">
+      <c r="G74" s="60">
         <v>22696.119988999999</v>
       </c>
-      <c r="H74" s="44">
+      <c r="H74" s="61">
         <v>93416.586194000003</v>
       </c>
-      <c r="I74" s="44">
+      <c r="I74" s="61">
         <v>38506.588359000001</v>
       </c>
-      <c r="J74" s="45">
+      <c r="J74" s="62">
         <v>154619.29454199999</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="41" t="s">
+      <c r="A75" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="47">
+      <c r="C75" s="52">
         <v>50473.286486999998</v>
       </c>
-      <c r="D75" s="48">
+      <c r="D75" s="53">
         <v>5911.9169769999999</v>
       </c>
-      <c r="E75" s="48">
+      <c r="E75" s="53">
         <v>9812.7294750000001</v>
       </c>
-      <c r="F75" s="49">
+      <c r="F75" s="54">
         <v>66197.932939000006</v>
       </c>
-      <c r="G75" s="47">
+      <c r="G75" s="52">
         <v>3885.1693810000002</v>
       </c>
-      <c r="H75" s="48">
+      <c r="H75" s="53">
         <v>23971.428626000001</v>
       </c>
-      <c r="I75" s="48">
+      <c r="I75" s="53">
         <v>13389.83863</v>
       </c>
-      <c r="J75" s="49">
+      <c r="J75" s="54">
         <v>41246.436636999999</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="41" t="s">
+      <c r="A76" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="51">
+      <c r="C76" s="68">
         <v>184436.85811599999</v>
       </c>
-      <c r="D76" s="52">
+      <c r="D76" s="69">
         <v>1147881.9829869999</v>
       </c>
-      <c r="E76" s="52">
+      <c r="E76" s="69">
         <v>644096.69519</v>
       </c>
-      <c r="F76" s="53">
+      <c r="F76" s="70">
         <v>1976415.536293</v>
       </c>
-      <c r="G76" s="51">
+      <c r="G76" s="68">
         <v>224920.143568</v>
       </c>
-      <c r="H76" s="52">
+      <c r="H76" s="69">
         <v>1184404.325958</v>
       </c>
-      <c r="I76" s="52">
+      <c r="I76" s="69">
         <v>444528.055505</v>
       </c>
-      <c r="J76" s="53">
+      <c r="J76" s="70">
         <v>1853852.5250309999</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="41" t="s">
+      <c r="A77" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="43">
+      <c r="C77" s="60">
         <v>347372.61824500002</v>
       </c>
-      <c r="D77" s="44">
+      <c r="D77" s="61">
         <v>333218.58056199999</v>
       </c>
-      <c r="E77" s="44">
+      <c r="E77" s="61">
         <v>63543.471826000001</v>
       </c>
-      <c r="F77" s="45">
+      <c r="F77" s="62">
         <v>744134.67063299997</v>
       </c>
-      <c r="G77" s="43">
+      <c r="G77" s="60">
         <v>58028.944157999998</v>
       </c>
-      <c r="H77" s="44">
+      <c r="H77" s="61">
         <v>391748.24172300001</v>
       </c>
-      <c r="I77" s="44">
+      <c r="I77" s="61">
         <v>209013.98726699999</v>
       </c>
-      <c r="J77" s="45">
+      <c r="J77" s="62">
         <v>658791.17314800003</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="41" t="s">
+      <c r="A78" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="43">
+      <c r="C78" s="60">
         <v>428083.17810899997</v>
       </c>
-      <c r="D78" s="44">
+      <c r="D78" s="61">
         <v>3610056.9099369999</v>
       </c>
-      <c r="E78" s="44">
+      <c r="E78" s="61">
         <v>2538072.1869180002</v>
       </c>
-      <c r="F78" s="45">
+      <c r="F78" s="62">
         <v>6576212.2749640001</v>
       </c>
-      <c r="G78" s="43">
+      <c r="G78" s="60">
         <v>1044195.567496</v>
       </c>
-      <c r="H78" s="44">
+      <c r="H78" s="61">
         <v>3469752.488324</v>
       </c>
-      <c r="I78" s="44">
+      <c r="I78" s="61">
         <v>2491305.3777780002</v>
       </c>
-      <c r="J78" s="45">
+      <c r="J78" s="62">
         <v>7005253.4335979996</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="41" t="s">
+      <c r="A79" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="47">
+      <c r="C79" s="64">
         <v>1678118.2950299999</v>
       </c>
-      <c r="D79" s="48">
+      <c r="D79" s="65">
         <v>6879915.7714189999</v>
       </c>
-      <c r="E79" s="48">
+      <c r="E79" s="65">
         <v>4512775.4541729996</v>
       </c>
-      <c r="F79" s="49">
+      <c r="F79" s="66">
         <v>13070809.520622</v>
       </c>
-      <c r="G79" s="47">
+      <c r="G79" s="64">
         <v>1991385.1419210001</v>
       </c>
-      <c r="H79" s="48">
+      <c r="H79" s="65">
         <v>7145250.9091210002</v>
       </c>
-      <c r="I79" s="48">
+      <c r="I79" s="65">
         <v>5455115.6268039998</v>
       </c>
-      <c r="J79" s="49">
+      <c r="J79" s="66">
         <v>14591751.677846</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="50" t="s">
+      <c r="B80" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="51">
+      <c r="C80" s="60">
         <v>137960.64853599999</v>
       </c>
-      <c r="D80" s="52">
+      <c r="D80" s="61">
         <v>28025.326251999999</v>
       </c>
-      <c r="E80" s="52">
+      <c r="E80" s="61">
         <v>21700.939989999999</v>
       </c>
-      <c r="F80" s="53">
+      <c r="F80" s="62">
         <v>187686.91477800001</v>
       </c>
-      <c r="G80" s="51">
+      <c r="G80" s="60">
         <v>10487.609451</v>
       </c>
-      <c r="H80" s="52">
+      <c r="H80" s="61">
         <v>50716.260630999997</v>
       </c>
-      <c r="I80" s="52">
+      <c r="I80" s="61">
         <v>25434.196258</v>
       </c>
-      <c r="J80" s="53">
+      <c r="J80" s="62">
         <v>86638.066340000005</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="33" t="s">
+      <c r="B81" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="43">
+      <c r="C81" s="60">
         <v>1003461.372827</v>
       </c>
-      <c r="D81" s="44">
+      <c r="D81" s="61">
         <v>703738.82865000004</v>
       </c>
-      <c r="E81" s="44">
+      <c r="E81" s="61">
         <v>270558.94637800002</v>
       </c>
-      <c r="F81" s="45">
+      <c r="F81" s="62">
         <v>1977759.1478550001</v>
       </c>
-      <c r="G81" s="43">
+      <c r="G81" s="60">
         <v>94334.118887999997</v>
       </c>
-      <c r="H81" s="44">
+      <c r="H81" s="61">
         <v>582517.81056999997</v>
       </c>
-      <c r="I81" s="44">
+      <c r="I81" s="61">
         <v>453110.31134299998</v>
       </c>
-      <c r="J81" s="45">
+      <c r="J81" s="62">
         <v>1129962.240801</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="41" t="s">
+      <c r="A82" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="C82" s="43">
+      <c r="C82" s="60">
         <v>187161.53043499999</v>
       </c>
-      <c r="D82" s="44">
+      <c r="D82" s="61">
         <v>284401.96231600002</v>
       </c>
-      <c r="E82" s="44">
+      <c r="E82" s="61">
         <v>87447.049880000006</v>
       </c>
-      <c r="F82" s="45">
+      <c r="F82" s="62">
         <v>559010.54263100005</v>
       </c>
-      <c r="G82" s="43">
+      <c r="G82" s="60">
         <v>72124.572398999997</v>
       </c>
-      <c r="H82" s="44">
+      <c r="H82" s="61">
         <v>417175.63935800001</v>
       </c>
-      <c r="I82" s="44">
+      <c r="I82" s="61">
         <v>201168.7654</v>
       </c>
-      <c r="J82" s="45">
+      <c r="J82" s="62">
         <v>690468.97715699999</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="41" t="s">
+      <c r="A83" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="C83" s="47">
+      <c r="C83" s="52">
         <v>2271029.8889139998</v>
       </c>
-      <c r="D83" s="48">
+      <c r="D83" s="53">
         <v>10689686.504229</v>
       </c>
-      <c r="E83" s="48">
+      <c r="E83" s="53">
         <v>7352912.2999250097</v>
       </c>
-      <c r="F83" s="49">
+      <c r="F83" s="54">
         <v>20313628.693068001</v>
       </c>
-      <c r="G83" s="47">
+      <c r="G83" s="52">
         <v>3347246.5497340001</v>
       </c>
-      <c r="H83" s="48">
+      <c r="H83" s="53">
         <v>10493185.774842</v>
       </c>
-      <c r="I83" s="48">
+      <c r="I83" s="53">
         <v>6861779.0338049997</v>
       </c>
-      <c r="J83" s="49">
+      <c r="J83" s="54">
         <v>20702211.358380999</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="41" t="s">
+      <c r="A84" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="50" t="s">
+      <c r="B84" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="51">
+      <c r="C84" s="68">
         <v>28302.719163000002</v>
       </c>
-      <c r="D84" s="52">
+      <c r="D84" s="69">
         <v>61273.064506000002</v>
       </c>
-      <c r="E84" s="52">
+      <c r="E84" s="69">
         <v>5183.8481680000004</v>
       </c>
-      <c r="F84" s="53">
+      <c r="F84" s="70">
         <v>94759.631836999994</v>
       </c>
-      <c r="G84" s="51">
+      <c r="G84" s="68">
         <v>10625.144305</v>
       </c>
-      <c r="H84" s="52">
+      <c r="H84" s="69">
         <v>82351.060328000007</v>
       </c>
-      <c r="I84" s="52">
+      <c r="I84" s="69">
         <v>48141.414181</v>
       </c>
-      <c r="J84" s="53">
+      <c r="J84" s="70">
         <v>141117.61881399999</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B85" s="33" t="s">
+      <c r="B85" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="C85" s="43">
+      <c r="C85" s="60">
         <v>3300.6564130000002</v>
       </c>
-      <c r="D85" s="44">
+      <c r="D85" s="61">
         <v>742.55425000000002</v>
       </c>
-      <c r="E85" s="44">
+      <c r="E85" s="61">
         <v>199.85379699999999</v>
       </c>
-      <c r="F85" s="45">
+      <c r="F85" s="62">
         <v>4243.0644599999996</v>
       </c>
-      <c r="G85" s="43">
+      <c r="G85" s="60">
         <v>3100.6404189999998</v>
       </c>
-      <c r="H85" s="44">
+      <c r="H85" s="61">
         <v>13747.832305</v>
       </c>
-      <c r="I85" s="44">
+      <c r="I85" s="61">
         <v>5592.1413320000001</v>
       </c>
-      <c r="J85" s="45">
+      <c r="J85" s="62">
         <v>22440.614055999999</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="41" t="s">
+      <c r="A86" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="33" t="s">
+      <c r="B86" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="C86" s="43">
+      <c r="C86" s="60">
         <v>200643.85402500001</v>
       </c>
-      <c r="D86" s="44">
+      <c r="D86" s="61">
         <v>154794.319357</v>
       </c>
-      <c r="E86" s="44">
+      <c r="E86" s="61">
         <v>75268.265625999993</v>
       </c>
-      <c r="F86" s="45">
+      <c r="F86" s="62">
         <v>430706.43900800002</v>
       </c>
-      <c r="G86" s="43">
+      <c r="G86" s="60">
         <v>58113.191376000002</v>
       </c>
-      <c r="H86" s="44">
+      <c r="H86" s="61">
         <v>290901.63092800003</v>
       </c>
-      <c r="I86" s="44">
+      <c r="I86" s="61">
         <v>125755.26756599999</v>
       </c>
-      <c r="J86" s="45">
+      <c r="J86" s="62">
         <v>474770.08987000003</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="41" t="s">
+      <c r="A87" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="33" t="s">
+      <c r="B87" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="43">
+      <c r="C87" s="60">
         <v>139709.199253</v>
       </c>
-      <c r="D87" s="44">
+      <c r="D87" s="61">
         <v>679975.40075000003</v>
       </c>
-      <c r="E87" s="44">
+      <c r="E87" s="61">
         <v>519914.41500500002</v>
       </c>
-      <c r="F87" s="45">
+      <c r="F87" s="62">
         <v>1339599.015008</v>
       </c>
-      <c r="G87" s="43">
+      <c r="G87" s="60">
         <v>400207.31077600003</v>
       </c>
-      <c r="H87" s="44">
+      <c r="H87" s="61">
         <v>967108.40343399998</v>
       </c>
-      <c r="I87" s="44">
+      <c r="I87" s="61">
         <v>407124.29245000001</v>
       </c>
-      <c r="J87" s="45">
+      <c r="J87" s="62">
         <v>1774440.00666</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="41" t="s">
+      <c r="A88" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B88" s="33" t="s">
+      <c r="B88" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="43">
+      <c r="C88" s="60">
         <v>96152.920614999995</v>
       </c>
-      <c r="D88" s="44">
+      <c r="D88" s="61">
         <v>95732.412238000004</v>
       </c>
-      <c r="E88" s="44">
+      <c r="E88" s="61">
         <v>28599.921257000002</v>
       </c>
-      <c r="F88" s="45">
+      <c r="F88" s="62">
         <v>220485.25411000001</v>
       </c>
-      <c r="G88" s="43">
+      <c r="G88" s="60">
         <v>13823.626646999999</v>
       </c>
-      <c r="H88" s="44">
+      <c r="H88" s="61">
         <v>93787.695118000003</v>
       </c>
-      <c r="I88" s="44">
+      <c r="I88" s="61">
         <v>51887.818115000002</v>
       </c>
-      <c r="J88" s="45">
+      <c r="J88" s="62">
         <v>159499.13988</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="41" t="s">
+      <c r="A89" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="33" t="s">
+      <c r="B89" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="43">
+      <c r="C89" s="60">
         <v>1033269.7009000001</v>
       </c>
-      <c r="D89" s="44">
+      <c r="D89" s="61">
         <v>3466618.1342739998</v>
       </c>
-      <c r="E89" s="44">
+      <c r="E89" s="61">
         <v>2597020.0678590001</v>
       </c>
-      <c r="F89" s="45">
+      <c r="F89" s="62">
         <v>7096907.9030330004</v>
       </c>
-      <c r="G89" s="43">
+      <c r="G89" s="60">
         <v>986673.60620699998</v>
       </c>
-      <c r="H89" s="44">
+      <c r="H89" s="61">
         <v>2765633.742571</v>
       </c>
-      <c r="I89" s="44">
+      <c r="I89" s="61">
         <v>1231034.3096020001</v>
       </c>
-      <c r="J89" s="45">
+      <c r="J89" s="62">
         <v>4983341.6583799999</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="41" t="s">
+      <c r="A90" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="C90" s="47">
+      <c r="C90" s="64">
         <v>2096495.674442</v>
       </c>
-      <c r="D90" s="48">
+      <c r="D90" s="65">
         <v>7244191.8228709996</v>
       </c>
-      <c r="E90" s="48">
+      <c r="E90" s="65">
         <v>4506388.5916940002</v>
       </c>
-      <c r="F90" s="49">
+      <c r="F90" s="66">
         <v>13847076.089007</v>
       </c>
-      <c r="G90" s="47">
+      <c r="G90" s="64">
         <v>2050833.4278220001</v>
       </c>
-      <c r="H90" s="48">
+      <c r="H90" s="65">
         <v>7324364.2874100003</v>
       </c>
-      <c r="I90" s="48">
+      <c r="I90" s="65">
         <v>5668881.4336029999</v>
       </c>
-      <c r="J90" s="49">
+      <c r="J90" s="66">
         <v>15044079.148835</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="41" t="s">
+      <c r="A91" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="50" t="s">
+      <c r="B91" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C91" s="51">
+      <c r="C91" s="60">
         <v>86923.816995000001</v>
       </c>
-      <c r="D91" s="52">
+      <c r="D91" s="61">
         <v>96443.079385999998</v>
       </c>
-      <c r="E91" s="52">
+      <c r="E91" s="61">
         <v>15206.842971</v>
       </c>
-      <c r="F91" s="53">
+      <c r="F91" s="62">
         <v>198573.739352</v>
       </c>
-      <c r="G91" s="51">
+      <c r="G91" s="60">
         <v>16421.59503</v>
       </c>
-      <c r="H91" s="52">
+      <c r="H91" s="61">
         <v>142806.97640099999</v>
       </c>
-      <c r="I91" s="52">
+      <c r="I91" s="61">
         <v>76014.524392000007</v>
       </c>
-      <c r="J91" s="53">
+      <c r="J91" s="62">
         <v>235243.09582300001</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="41" t="s">
+      <c r="A92" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="43">
+      <c r="C92" s="60">
         <v>19011.716503</v>
       </c>
-      <c r="D92" s="44">
+      <c r="D92" s="61">
         <v>21278.891651999998</v>
       </c>
-      <c r="E92" s="44">
+      <c r="E92" s="61">
         <v>102034.715342</v>
       </c>
-      <c r="F92" s="45">
+      <c r="F92" s="62">
         <v>142325.323497</v>
       </c>
-      <c r="G92" s="43">
+      <c r="G92" s="60">
         <v>19791.394531999998</v>
       </c>
-      <c r="H92" s="44">
+      <c r="H92" s="61">
         <v>141711.81940099999</v>
       </c>
-      <c r="I92" s="44">
+      <c r="I92" s="61">
         <v>40479.816404999998</v>
       </c>
-      <c r="J92" s="45">
+      <c r="J92" s="62">
         <v>201983.03033800001</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="41" t="s">
+      <c r="A93" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="C93" s="43">
+      <c r="C93" s="60">
         <v>492.386484</v>
       </c>
-      <c r="D93" s="44">
+      <c r="D93" s="61">
         <v>2296.8853260000001</v>
       </c>
-      <c r="E93" s="44">
+      <c r="E93" s="61">
         <v>966.34568999999999</v>
       </c>
-      <c r="F93" s="45">
+      <c r="F93" s="62">
         <v>3755.6174999999998</v>
       </c>
-      <c r="G93" s="43">
+      <c r="G93" s="60">
         <v>1018.0149280000001</v>
       </c>
-      <c r="H93" s="44">
+      <c r="H93" s="61">
         <v>6211.1745309999997</v>
       </c>
-      <c r="I93" s="44">
+      <c r="I93" s="61">
         <v>3300.8198339999999</v>
       </c>
-      <c r="J93" s="45">
+      <c r="J93" s="62">
         <v>10530.009292999999</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="41" t="s">
+      <c r="A94" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C94" s="43">
+      <c r="C94" s="60">
         <v>33245.643464000001</v>
       </c>
-      <c r="D94" s="44">
+      <c r="D94" s="61">
         <v>306446.06368299999</v>
       </c>
-      <c r="E94" s="44">
+      <c r="E94" s="61">
         <v>110154.55107099999</v>
       </c>
-      <c r="F94" s="45">
+      <c r="F94" s="62">
         <v>449846.258218</v>
       </c>
-      <c r="G94" s="43">
+      <c r="G94" s="60">
         <v>51447.379942</v>
       </c>
-      <c r="H94" s="44">
+      <c r="H94" s="61">
         <v>336334.07984999998</v>
       </c>
-      <c r="I94" s="44">
+      <c r="I94" s="61">
         <v>138931.878815</v>
       </c>
-      <c r="J94" s="45">
+      <c r="J94" s="62">
         <v>526713.33860699995</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="41" t="s">
+      <c r="A95" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B95" s="33" t="s">
+      <c r="B95" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="C95" s="43">
+      <c r="C95" s="60">
         <v>21247.268857999999</v>
       </c>
-      <c r="D95" s="44">
+      <c r="D95" s="61">
         <v>46249.044492000001</v>
       </c>
-      <c r="E95" s="44">
+      <c r="E95" s="61">
         <v>3124.8290790000001</v>
       </c>
-      <c r="F95" s="45">
+      <c r="F95" s="62">
         <v>70621.142429</v>
       </c>
-      <c r="G95" s="43">
+      <c r="G95" s="60">
         <v>6410.4402440000003</v>
       </c>
-      <c r="H95" s="44">
+      <c r="H95" s="61">
         <v>43580.071939000001</v>
       </c>
-      <c r="I95" s="44">
+      <c r="I95" s="61">
         <v>22614.474995</v>
       </c>
-      <c r="J95" s="45">
+      <c r="J95" s="62">
         <v>72604.987177999996</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="41" t="s">
+      <c r="A96" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B96" s="46" t="s">
+      <c r="B96" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C96" s="47">
+      <c r="C96" s="52">
         <v>137306.12796799999</v>
       </c>
-      <c r="D96" s="48">
+      <c r="D96" s="53">
         <v>85072.666712999999</v>
       </c>
-      <c r="E96" s="48">
+      <c r="E96" s="53">
         <v>19413.030629000001</v>
       </c>
-      <c r="F96" s="49">
+      <c r="F96" s="54">
         <v>241791.82530999999</v>
       </c>
-      <c r="G96" s="47">
+      <c r="G96" s="52">
         <v>15141.582811</v>
       </c>
-      <c r="H96" s="48">
+      <c r="H96" s="53">
         <v>117218.767352</v>
       </c>
-      <c r="I96" s="48">
+      <c r="I96" s="53">
         <v>97996.048666999995</v>
       </c>
-      <c r="J96" s="49">
+      <c r="J96" s="54">
         <v>230356.39882999999</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="41" t="s">
+      <c r="A97" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="50" t="s">
+      <c r="B97" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="C97" s="51">
+      <c r="C97" s="68">
         <v>179650.29538600001</v>
       </c>
-      <c r="D97" s="52">
+      <c r="D97" s="69">
         <v>87969.741429000002</v>
       </c>
-      <c r="E97" s="52">
+      <c r="E97" s="69">
         <v>30125.199198999999</v>
       </c>
-      <c r="F97" s="53">
+      <c r="F97" s="70">
         <v>297745.23601400002</v>
       </c>
-      <c r="G97" s="51">
+      <c r="G97" s="68">
         <v>21975.711126999999</v>
       </c>
-      <c r="H97" s="52">
+      <c r="H97" s="69">
         <v>205767.867555</v>
       </c>
-      <c r="I97" s="52">
+      <c r="I97" s="69">
         <v>99817.736126000003</v>
       </c>
-      <c r="J97" s="53">
+      <c r="J97" s="70">
         <v>327561.314808</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="41" t="s">
+      <c r="A98" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="C98" s="47">
+      <c r="C98" s="64">
         <v>47871.839426999999</v>
       </c>
-      <c r="D98" s="48">
+      <c r="D98" s="65">
         <v>71269.812015000003</v>
       </c>
-      <c r="E98" s="48">
+      <c r="E98" s="65">
         <v>143013.393759</v>
       </c>
-      <c r="F98" s="49">
+      <c r="F98" s="66">
         <v>262155.045201</v>
       </c>
-      <c r="G98" s="47">
+      <c r="G98" s="64">
         <v>46171.961449000002</v>
       </c>
-      <c r="H98" s="48">
+      <c r="H98" s="65">
         <v>227203.07608599999</v>
       </c>
-      <c r="I98" s="48">
+      <c r="I98" s="65">
         <v>85049.434211999993</v>
       </c>
-      <c r="J98" s="49">
+      <c r="J98" s="66">
         <v>358424.471747</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="54"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="35"/>
+      <c r="A99" s="72"/>
+      <c r="B99" s="73"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="53"/>
+      <c r="J99" s="53"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C100" s="56"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="56"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="56"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="74"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="74"/>
+      <c r="G100" s="74"/>
+      <c r="H100" s="74"/>
+      <c r="I100" s="74"/>
+      <c r="J100" s="74"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C101" s="56"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
-      <c r="G101" s="56"/>
-      <c r="H101" s="56"/>
-      <c r="I101" s="56"/>
-      <c r="J101" s="56"/>
+      <c r="C101" s="74"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="74"/>
+      <c r="G101" s="74"/>
+      <c r="H101" s="74"/>
+      <c r="I101" s="74"/>
+      <c r="J101" s="74"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C102" s="56"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="56"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="56"/>
-      <c r="J102" s="56"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="74"/>
+      <c r="G102" s="74"/>
+      <c r="H102" s="74"/>
+      <c r="I102" s="74"/>
+      <c r="J102" s="74"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C103" s="56"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="56"/>
-      <c r="H103" s="56"/>
-      <c r="I103" s="56"/>
-      <c r="J103" s="56"/>
+      <c r="C103" s="74"/>
+      <c r="D103" s="74"/>
+      <c r="E103" s="74"/>
+      <c r="F103" s="74"/>
+      <c r="G103" s="74"/>
+      <c r="H103" s="74"/>
+      <c r="I103" s="74"/>
+      <c r="J103" s="74"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C104" s="56"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
-      <c r="G104" s="56"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="56"/>
-      <c r="J104" s="56"/>
+      <c r="C104" s="74"/>
+      <c r="D104" s="74"/>
+      <c r="E104" s="74"/>
+      <c r="F104" s="74"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="74"/>
+      <c r="I104" s="74"/>
+      <c r="J104" s="74"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C105" s="56"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56"/>
-      <c r="H105" s="56"/>
-      <c r="I105" s="56"/>
-      <c r="J105" s="56"/>
+      <c r="C105" s="74"/>
+      <c r="D105" s="74"/>
+      <c r="E105" s="74"/>
+      <c r="F105" s="74"/>
+      <c r="G105" s="74"/>
+      <c r="H105" s="74"/>
+      <c r="I105" s="74"/>
+      <c r="J105" s="74"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C106" s="56"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
-      <c r="G106" s="56"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="56"/>
-      <c r="J106" s="56"/>
+      <c r="C106" s="74"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="74"/>
+      <c r="G106" s="74"/>
+      <c r="H106" s="74"/>
+      <c r="I106" s="74"/>
+      <c r="J106" s="74"/>
     </row>
     <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="57" t="s">
+      <c r="B107" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="C107" s="56"/>
-      <c r="D107" s="56"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
-      <c r="G107" s="56"/>
-      <c r="H107" s="56"/>
-      <c r="I107" s="56"/>
-      <c r="J107" s="56"/>
+      <c r="C107" s="74"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="74"/>
+      <c r="G107" s="74"/>
+      <c r="H107" s="74"/>
+      <c r="I107" s="74"/>
+      <c r="J107" s="74"/>
     </row>
     <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="57"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="56"/>
-      <c r="F108" s="56"/>
-      <c r="G108" s="56"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="56"/>
-      <c r="J108" s="56"/>
+      <c r="B108" s="75"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="74"/>
+      <c r="G108" s="74"/>
+      <c r="H108" s="74"/>
+      <c r="I108" s="74"/>
+      <c r="J108" s="74"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C109" s="56"/>
-      <c r="D109" s="56"/>
-      <c r="E109" s="56"/>
-      <c r="F109" s="56"/>
-      <c r="G109" s="56"/>
-      <c r="H109" s="56"/>
-      <c r="I109" s="56"/>
-      <c r="J109" s="56"/>
+        <v>170</v>
+      </c>
+      <c r="C109" s="74"/>
+      <c r="D109" s="74"/>
+      <c r="E109" s="74"/>
+      <c r="F109" s="74"/>
+      <c r="G109" s="74"/>
+      <c r="H109" s="74"/>
+      <c r="I109" s="74"/>
+      <c r="J109" s="74"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C110" s="74"/>
+      <c r="D110" s="74"/>
+      <c r="E110" s="74"/>
+      <c r="F110" s="74"/>
+      <c r="G110" s="74"/>
+      <c r="H110" s="74"/>
+      <c r="I110" s="74"/>
+      <c r="J110" s="74"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="C110" s="56"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="56"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="56"/>
-      <c r="J110" s="56"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C111" s="56"/>
-      <c r="D111" s="56"/>
-      <c r="E111" s="56"/>
-      <c r="F111" s="56"/>
-      <c r="G111" s="56"/>
-      <c r="H111" s="56"/>
-      <c r="I111" s="56"/>
-      <c r="J111" s="56"/>
+      <c r="C111" s="74"/>
+      <c r="D111" s="74"/>
+      <c r="E111" s="74"/>
+      <c r="F111" s="74"/>
+      <c r="G111" s="74"/>
+      <c r="H111" s="74"/>
+      <c r="I111" s="74"/>
+      <c r="J111" s="74"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C112" s="56"/>
-      <c r="D112" s="56"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56"/>
-      <c r="G112" s="56"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="56"/>
-      <c r="J112" s="56"/>
+      <c r="C112" s="74"/>
+      <c r="D112" s="74"/>
+      <c r="E112" s="74"/>
+      <c r="F112" s="74"/>
+      <c r="G112" s="74"/>
+      <c r="H112" s="74"/>
+      <c r="I112" s="74"/>
+      <c r="J112" s="74"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C113" s="56"/>
-      <c r="D113" s="56"/>
-      <c r="E113" s="56"/>
-      <c r="F113" s="56"/>
-      <c r="G113" s="56"/>
-      <c r="H113" s="56"/>
-      <c r="I113" s="56"/>
-      <c r="J113" s="56"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="74"/>
+      <c r="D113" s="74"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="74"/>
+      <c r="G113" s="74"/>
+      <c r="H113" s="74"/>
+      <c r="I113" s="74"/>
+      <c r="J113" s="74"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="56"/>
-      <c r="D114" s="56"/>
-      <c r="E114" s="56"/>
-      <c r="F114" s="56"/>
-      <c r="G114" s="56"/>
-      <c r="H114" s="56"/>
-      <c r="I114" s="56"/>
-      <c r="J114" s="56"/>
+      <c r="C114" s="74"/>
+      <c r="D114" s="74"/>
+      <c r="E114" s="74"/>
+      <c r="F114" s="74"/>
+      <c r="G114" s="74"/>
+      <c r="H114" s="74"/>
+      <c r="I114" s="74"/>
+      <c r="J114" s="74"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="76"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{6FA0AE38-3E8E-42DD-B491-60C69A38C6A5}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{C09CB0B2-8D4C-4CE5-AB18-69B65E934E30}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{A48C1606-24C6-409D-AAB9-79234F6966AC}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{8EE6997E-439B-4DB0-BC79-B3FBD37FCFD8}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{60CBADFE-B64D-4B13-A617-997DFC7BBE32}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{D8ABE95F-DF07-4C7C-BF55-F7BD270C091C}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C7E131C0-E24B-4F67-8CB8-C27415013D33}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{6F3BF582-A3C1-491D-AD6F-04DE0DA2F7CF}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{C04A8AB0-7406-43C9-9C33-4FA17E101267}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{8A406C47-BD42-4A7B-ADA1-EA7B2C7E2276}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{18425AD6-A1D1-423A-8A27-2609F93FAB8E}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{EB75EB53-2DA8-47A4-963F-A81756FBACD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/AfDD_2024_Annex_Table_Tab17.xlsx
+++ b/AfDD_2024_Annex_Table_Tab17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B228D807-BBCD-4A2F-B3C2-D47ABFEC13AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06160C8E-4C00-4D6D-AFD3-1A90CC2F383E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{276159BA-22A5-45E1-9F44-0449C0AC3C18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F09856-10D2-47C6-84C1-D192C1A4AA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -1453,7 +1453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E79026-998F-438E-946D-19111BEDEB5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88860C44-F9C0-4AFA-995E-1D9E6F2FD917}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4788,12 +4788,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C7E131C0-E24B-4F67-8CB8-C27415013D33}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{6F3BF582-A3C1-491D-AD6F-04DE0DA2F7CF}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{C04A8AB0-7406-43C9-9C33-4FA17E101267}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{8A406C47-BD42-4A7B-ADA1-EA7B2C7E2276}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{18425AD6-A1D1-423A-8A27-2609F93FAB8E}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{EB75EB53-2DA8-47A4-963F-A81756FBACD5}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4CD6F318-8BF7-4B8B-A07A-86878C331971}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{E033356E-82DF-4A58-8126-9F7171ADA599}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D434FF8D-361E-4B1A-8439-6FFF00386E00}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{D3F2085E-5419-4983-95FA-D60D3CBED03E}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{001F7A59-DF23-431F-A68B-832827ABDC66}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{01B0E9A5-C33E-438F-852A-6E8FE5384D86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab17.xlsx
+++ b/AfDD_2024_Annex_Table_Tab17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06160C8E-4C00-4D6D-AFD3-1A90CC2F383E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3E711EB-03A0-4CFC-B3EE-AA055CE52F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F09856-10D2-47C6-84C1-D192C1A4AA00}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{B4AFEEFE-B700-438F-8C5A-245956DF0FD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -1135,9 +1135,9 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1453,7 +1453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88860C44-F9C0-4AFA-995E-1D9E6F2FD917}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A559356-4EDB-4968-8E6A-BA3264DC3B30}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1465,7 +1465,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.42578125" style="78" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4736,7 +4736,7 @@
       <c r="J110" s="74"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="78" t="s">
+      <c r="B111" s="76" t="s">
         <v>172</v>
       </c>
       <c r="C111" s="74"/>
@@ -4749,7 +4749,7 @@
       <c r="J111" s="74"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="76" t="s">
         <v>169</v>
       </c>
       <c r="C112" s="74"/>
@@ -4784,16 +4784,16 @@
       <c r="J114" s="74"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="76"/>
+      <c r="B115" s="77"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4CD6F318-8BF7-4B8B-A07A-86878C331971}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{E033356E-82DF-4A58-8126-9F7171ADA599}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{D434FF8D-361E-4B1A-8439-6FFF00386E00}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{D3F2085E-5419-4983-95FA-D60D3CBED03E}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{001F7A59-DF23-431F-A68B-832827ABDC66}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{01B0E9A5-C33E-438F-852A-6E8FE5384D86}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{711F25AC-5676-45B0-944D-545420B3947D}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BCC1F7AB-A514-4C45-A7EF-0218E50AC72C}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{9E4C3806-7B25-4A35-B1B8-36D13622D115}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{786665CA-5F54-423F-BD6B-74202244DFA3}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{9B1DB2AD-BA74-4108-9597-6B3FAC5EF4DD}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{E0ADE44C-4579-412B-8833-A7634E355A00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab17.xlsx
+++ b/AfDD_2024_Annex_Table_Tab17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3E711EB-03A0-4CFC-B3EE-AA055CE52F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95F72BEB-7A17-44DD-9475-E9F25BF9A6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{B4AFEEFE-B700-438F-8C5A-245956DF0FD3}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{63CD7A40-6F45-4F50-95D6-9EF869CD565E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -1453,7 +1453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A559356-4EDB-4968-8E6A-BA3264DC3B30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF82A051-D963-4DA7-B6F3-E552248FA205}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4788,12 +4788,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{711F25AC-5676-45B0-944D-545420B3947D}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BCC1F7AB-A514-4C45-A7EF-0218E50AC72C}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{9E4C3806-7B25-4A35-B1B8-36D13622D115}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{786665CA-5F54-423F-BD6B-74202244DFA3}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{9B1DB2AD-BA74-4108-9597-6B3FAC5EF4DD}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{E0ADE44C-4579-412B-8833-A7634E355A00}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4CB1CCF5-6D6A-47F4-8383-F18667C8310F}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{303B48FD-4019-4B13-91C3-3F836BD0B27E}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{437B6ADE-43AB-4628-93DF-16CA53E2F3FF}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{E7225949-9E41-4EC1-8538-63A735E7CC02}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{8376F9C3-8E63-402A-B310-6DF1945F59ED}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{F7AA922A-585B-41C5-9139-A9B9C2964900}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
